--- a/medicine/Enfance/Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher/Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher.xlsx
+++ b/medicine/Enfance/Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher/Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La basilique Notre-Dame-des-Enfants est un édifice religieux du XIXe siècle situé à Châteauneuf-sur-Cher, bâti à l'initiative de l'abbé Jacques-Marie Ducros au moyen d'une souscription adressée aux enfants.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nommé curé de Châteauneuf-sur-Cher en 1861, l'abbé Ducros y découvre une église en ruine. Pour la reconstruire, il décide une souscription, en demandant « deux sous » à chaque enfant en échange de quoi il promet de prier pour lui la Vierge Marie. Il reçoit en retour beaucoup de « deux sous », mais aussi beaucoup de lettres, dont une écrite par une fillette de dix ans, habitant Semur-en-Brionnais[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nommé curé de Châteauneuf-sur-Cher en 1861, l'abbé Ducros y découvre une église en ruine. Pour la reconstruire, il décide une souscription, en demandant « deux sous » à chaque enfant en échange de quoi il promet de prier pour lui la Vierge Marie. Il reçoit en retour beaucoup de « deux sous », mais aussi beaucoup de lettres, dont une écrite par une fillette de dix ans, habitant Semur-en-Brionnais :
 « Vous nous annoncez, Monsieur le Curé, que le nouveau sanctuaire que vous élevez sera dédié à Notre-Dame des Enfants. Quel beau nom ! La Sainte Vierge, invoquée sous ce titre, se plaira à combler l'enfance des grâces les plus abondantes. »
-De là naît l'idée du nom, et en 1866, la confrérie de Notre-Dame des Enfants est créée[2]. Elle est érigée en archiconfrérie par un bref apostolique du pape Pie IX le 21 janvier 1870.
-Le 29 août 1869, la première pierre de l'église est bénie par Mgr de La Tour d'Auvergne, archevêque de Bourges. Les plans des fondations sont établis par Edouard Marganne, architecte de Vendôme, et ceux de l'élévation sont dus à M. Auclair, architecte à Bourges[3]. Les travaux sont dirigés par Frère Hariolf (Pierre Fayolle), (1825-1910), directeur de l'École des frères de Châteauneuf[4],[5]. Le gros œuvre est terminé en 1879, et l'aménagement intérieur en 1886[3].
-En 1896, le pape Léon XIII érige le sanctuaire en basilique. Elle est consacrée le 24 avril 1898[6].
-La basilique elle-même est inscrite aux Monuments historiques depuis 1983[3],[7].
+De là naît l'idée du nom, et en 1866, la confrérie de Notre-Dame des Enfants est créée. Elle est érigée en archiconfrérie par un bref apostolique du pape Pie IX le 21 janvier 1870.
+Le 29 août 1869, la première pierre de l'église est bénie par Mgr de La Tour d'Auvergne, archevêque de Bourges. Les plans des fondations sont établis par Edouard Marganne, architecte de Vendôme, et ceux de l'élévation sont dus à M. Auclair, architecte à Bourges. Les travaux sont dirigés par Frère Hariolf (Pierre Fayolle), (1825-1910), directeur de l'École des frères de Châteauneuf,. Le gros œuvre est terminé en 1879, et l'aménagement intérieur en 1886.
+En 1896, le pape Léon XIII érige le sanctuaire en basilique. Elle est consacrée le 24 avril 1898.
+La basilique elle-même est inscrite aux Monuments historiques depuis 1983,.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,65 +562,523 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La basilique Notre-Dame-des-Enfants s'élève rue du Château à Châteauneuf-sur-Cher ; elle est de style néo-gothique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La basilique Notre-Dame-des-Enfants s'élève rue du Château à Châteauneuf-sur-Cher ; elle est de style néo-gothique.
 Longue de quatre-vingts mètres, elle est haute de vingt et un mètres sous les clés de voûte ; sa grande nef est bordée de deux rangées de colonnes élancées et comporte onze travées. La basilique est prolongée par la chapelle Notre-Dame des Enfants.
-Sculptures du portail
-L'architecte Auclair a eu recours au sculpteur Caussé à Bourges pour disposer vingt-et-une statues ou groupes sculptés dont trois dominantes, quatre majeures avancées sur les contreforts du portail central et quatorze dans les embrasements des portails latéraux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sculptures du portail</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'architecte Auclair a eu recours au sculpteur Caussé à Bourges pour disposer vingt-et-une statues ou groupes sculptés dont trois dominantes, quatre majeures avancées sur les contreforts du portail central et quatorze dans les embrasements des portails latéraux.
 La statuaire de la basilique Notre-Dame des Enfants est choisie en rapport avec l'enfance : Vincent de Paul, Jean-Baptiste de La Salle, Antoine de Padoue, Solange de Bourges, patronne du Berry, Jacques de Zébédée, Louis de Gonzague, Germaine de Pibrac, Osmond de Sées, Laurent de Rome, Symphorien d'Autun, Saint Louis, Jean Berchmans, Thérèse d'Avila, Stanislas Kostka, Blaise de Sébaste.
 			Tympan du portail
-Chœur
-Le maître autel en pierre sculptée provient des Ateliers de Saint-Savin (Vienne). La face est occupée par un bas-relief représentant le repas d'institution de l'Eucharistie. La tabernacle est un cabinet doré sur la porte duquel est représenté le bon pasteur avec la brebis égarée sur les épaules. À sa droite et à sa gauche se tiennent les statues des quatre évangélistes. Sur les deux piliers de part et d'autre de l'entrée du chœur, sont en place à gauche une perche munie d'une clochette à son extrémité et, à droite un ombrellino pontifical.
-Chapelle de Notre-Dame des enfants
-La chapelle de Notre-Dame des Enfants se trouve au chevet de la basilique. Dans le bas relief de l'autel, la Vierge Marie est assise sur un trône. Des enfants s'approchent. Elle écoute leurs suppliques. Ce thème est également visible au dessus de l'autel. De chaque côté de la Vierge, des petits enfants s'approchent d'elle et s'agenouillent à ses pieds.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chœur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le maître autel en pierre sculptée provient des Ateliers de Saint-Savin (Vienne). La face est occupée par un bas-relief représentant le repas d'institution de l'Eucharistie. La tabernacle est un cabinet doré sur la porte duquel est représenté le bon pasteur avec la brebis égarée sur les épaules. À sa droite et à sa gauche se tiennent les statues des quatre évangélistes. Sur les deux piliers de part et d'autre de l'entrée du chœur, sont en place à gauche une perche munie d'une clochette à son extrémité et, à droite un ombrellino pontifical.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chapelle de Notre-Dame des enfants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chapelle de Notre-Dame des Enfants se trouve au chevet de la basilique. Dans le bas relief de l'autel, la Vierge Marie est assise sur un trône. Des enfants s'approchent. Elle écoute leurs suppliques. Ce thème est également visible au dessus de l'autel. De chaque côté de la Vierge, des petits enfants s'approchent d'elle et s'agenouillent à ses pieds.
 			Chapelle de Notre-Dame des Enfants
 			bas relief
 			autel
-Chapelle du Sacré-Cœur
-Dans la chapelle dédiée au Sacré-Cœur de Jésus se trouve une statue de sainte Solange patronne du Berry et une statue de saint Didier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chapelle du Sacré-Cœur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la chapelle dédiée au Sacré-Cœur de Jésus se trouve une statue de sainte Solange patronne du Berry et une statue de saint Didier.
 			Chapelle du Sacré-Cœur de Jésus
 			Sainte Solange patronne du Berry
 			Saint Didier évêque
 			Vitrail du Sacré-Coeur de Jésus
-Chapelle de Maillé
-La famille de Maillé, propriétaire du Château de Châteauneuf-sur-Cher a contribué au financement de la construction de la basilique. Une chapelle en fait mémoire. Elle est dédiée à la bienheureuse Jeanne-Marie de Maillé et à saint Osmond.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chapelle de Maillé</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille de Maillé, propriétaire du Château de Châteauneuf-sur-Cher a contribué au financement de la construction de la basilique. Une chapelle en fait mémoire. Elle est dédiée à la bienheureuse Jeanne-Marie de Maillé et à saint Osmond.
 			Antoine de Padoue
 			Jeanne-Marie de Maillé
 			Osmond de Sées
 			La Vierge à l'Enfant
-Chapelle de la bonne mort
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chapelle de la bonne mort</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			La bonne mort de saint Joseph, avec à ses côtés Jésus-Christ, la Vierge Marie, un ange
 			La résurrection de Jésus
 			Jésus ressuscité
 			Jeanne d'Arc
-Chapelle des Fonts baptismaux
-Les vitraux de la chapelle des fonts baptismaux représentent les sept sacrements. Au milieu, le vitrail représente le baptême de Jésus de Nazareth par Jean le Baptiste, dans les eaux du Jourdain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chapelle des Fonts baptismaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vitraux de la chapelle des fonts baptismaux représentent les sept sacrements. Au milieu, le vitrail représente le baptême de Jésus de Nazareth par Jean le Baptiste, dans les eaux du Jourdain.
 			Baptême de Jésus de Nazareth par Jean le Baptiste
 			Fonts baptismaux
-Orgue Cavaillé-Coll
-Un orgue construit en 1889 par Aristide Cavaillé-Coll est installé dans le chœur face aux stalles. Il est classé monument historique depuis 1976. La partie instrumentale a été restaurée en 1979-1980[8].
-Chaire
-La chaire est l'œuvre des ateliers Charles Buisine-Rigot à Lille. Sur le panneau de face est représentée la dispersion des Apôtres partant évangéliser les nations. Les quatre évangélistes, saint Jean avec l'aigle, saint Marc et son lion, saint Luc et son bœuf, saint Mathieu avec l'homme, ainsi que saint Pierre et saint Paul sont sur les côtés. L'abat voix est surmonté des quatre anges du jugement dernier sonnant de la trompette. Les stalles du chœur et le buffet d'orgue sont également issus de ces ateliers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Orgue Cavaillé-Coll</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un orgue construit en 1889 par Aristide Cavaillé-Coll est installé dans le chœur face aux stalles. Il est classé monument historique depuis 1976. La partie instrumentale a été restaurée en 1979-1980.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Chaire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chaire est l'œuvre des ateliers Charles Buisine-Rigot à Lille. Sur le panneau de face est représentée la dispersion des Apôtres partant évangéliser les nations. Les quatre évangélistes, saint Jean avec l'aigle, saint Marc et son lion, saint Luc et son bœuf, saint Mathieu avec l'homme, ainsi que saint Pierre et saint Paul sont sur les côtés. L'abat voix est surmonté des quatre anges du jugement dernier sonnant de la trompette. Les stalles du chœur et le buffet d'orgue sont également issus de ces ateliers.
 			Chaire
 			Saint Pierre apôtre
 			Saint Paul de Tarse
 			Saint Luc évangéliste
 			Saint Marc évangéliste
-Crèche de Noël
-La Crèche de Noël de style sulpicien a été fabriquée en 1887 par l'Union internationale artistique de Vaucouleurs, en carton romain, substance composée de plâtre fin tamis, d’étoupes ayant subi une préparation, de dextrine et de produits chimiques. Ce mélange assure légèreté, solidité, est réfractaire à l’humidité à la différence du plâtre[9]. Elle est composée de quatorze statues : Jésus, Marie, Joseph, l'âne, le bœuf, six bergers et trois rois mages. Disparue pendant trente ans, elle a été restituée le 24 décembre 2020[10]. Elle est exposée pendant le temps de Noël dans la chapelle de la bienheureuse Jeanne-Marie de Maillé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Crèche de Noël</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Crèche de Noël de style sulpicien a été fabriquée en 1887 par l'Union internationale artistique de Vaucouleurs, en carton romain, substance composée de plâtre fin tamis, d’étoupes ayant subi une préparation, de dextrine et de produits chimiques. Ce mélange assure légèreté, solidité, est réfractaire à l’humidité à la différence du plâtre. Elle est composée de quatorze statues : Jésus, Marie, Joseph, l'âne, le bœuf, six bergers et trois rois mages. Disparue pendant trente ans, elle a été restituée le 24 décembre 2020. Elle est exposée pendant le temps de Noël dans la chapelle de la bienheureuse Jeanne-Marie de Maillé.
 			L'adoration des bergers
 			La Nativité
 			L'adoration des mages
-Chemin de croix
-Ce chemin de croix de style sulpicien a été fabriqué par l' Union internationale artistique de Vaucouleurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Chemin de croix</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce chemin de croix de style sulpicien a été fabriqué par l' Union internationale artistique de Vaucouleurs.
 			Jésus condamné à mort
 			Jésus rencontre sa mère
 			Jésus meurt sur la croix
-Vitraux
-Les vitraux ont été réalisés par l'atelier Lobin à Tours.
-Plaques commémoratives
-Quatre plaques commémoratives font mémoire de l'initiative de l'Abbé Jacques-Marie Ducros, de la bénédiction de la première pierre de l'édifice, de la bénédiction de la statue de Notre Dame des enfants le 29 août 1869 et son couronnement au nom du pape Pie XI le 26 août 1923.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vitraux</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vitraux ont été réalisés par l'atelier Lobin à Tours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Plaques commémoratives</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatre plaques commémoratives font mémoire de l'initiative de l'Abbé Jacques-Marie Ducros, de la bénédiction de la première pierre de l'édifice, de la bénédiction de la statue de Notre Dame des enfants le 29 août 1869 et son couronnement au nom du pape Pie XI le 26 août 1923.
 			A la mémoire de l'Abbé Jacques Ducros
 			Bénédiction de la première pierre
 			Bénédiction de la statue de Notre-Dame des Enfants
@@ -618,62 +1090,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Pèlerinage à Notre-Dame des Enfants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La basilique est ouverte au culte catholique depuis 1879. Le principal pèlerinage, annuel, a lieu au mois de mai[11].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La basilique est ouverte au culte catholique depuis 1879. Le principal pèlerinage, annuel, a lieu au mois de mai.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Basilique_Notre-Dame-des-Enfants_de_Châteauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Basilique_Notre-Dame-des-Enfants_de_Ch%C3%A2teauneuf-sur-Cher</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Accessibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les personnes à mobilité réduite, un parking est disponible près de l'abside. Un parcours est aménagé avec des plans inclinés pour les fauteuils roulants jusqu'à la nef.
 </t>
